--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -31732,7 +31732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G69"/>
+  <dimension ref="A2:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -34063,6 +34063,356 @@
       <c r="G69" t="inlineStr">
         <is>
           <t>Aaron Sorkin,Walter Isaacson</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Moon</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2009-07-10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Sam Rockwell,Kevin Spacey,Dominique McElligott</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Duncan Jones</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Duncan Jones,Nathan Parker</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Night at the Museum</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2006-12-22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ben Stiller,Carla Gugino,Ricky Gervais</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Shawn Levy</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Robert Ben Garant,Thomas Lennon,Milan Trenc</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Night at the Museum: Battle of the Smithsonian</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2009-05-22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Ben Stiller,Owen Wilson,Amy Adams</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Shawn Levy</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Robert Ben Garant,Thomas Lennon</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lego: The Adventures of Clutch Powers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2010-06-10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ryan McPartlin,Yvonne Strahovski,Paul Michael Glaser</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Howard E. Baker</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Tom Rogers,Joshua Wexler,Ole Kirk Christiansen</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12 Angry Men</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1957-04-10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Henry Fonda,Lee J. Cobb,Martin Balsam</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sidney Lumet</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Reginald Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Purple Rain</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1984-07-27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Prince,Apollonia Kotero,Morris Day</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Albert Magnoli</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Albert Magnoli,William Blinn</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hereditary</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2018-06-08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Toni Collette,Milly Shapiro,Gabriel Byrne</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ari Aster</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Ari Aster</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sin City</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2005-04-01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Mickey Rourke,Clive Owen,Bruce Willis</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Frank Miller,Quentin Tarantino,Robert Rodriguez</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Frank Miller,Robert Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>The Cabin in the Woods</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2012-04-13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Kristen Connolly,Chris Hemsworth,Anna Hutchison</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Drew Goddard</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Joss Whedon,Drew Goddard</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Happy Gilmore</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1996-02-16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Adam Sandler,Christopher McDonald,Julie Bowen</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Dennis Dugan</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Tim Herlihy,Adam Sandler</t>
         </is>
       </c>
     </row>

--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -31732,7 +31732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G79"/>
+  <dimension ref="A2:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -34413,6 +34413,4386 @@
       <c r="G79" t="inlineStr">
         <is>
           <t>Tim Herlihy,Adam Sandler</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Abraham Lincoln: Vampire Hunter</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2012-06-22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Benjamin Walker,Rufus Sewell,Dominic Cooper</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Timur Bekmambetov</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Seth Grahame-Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Candyman</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1992-10-16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Virginia Madsen,Xander Berkeley,Tony Todd</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bernard Rose</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Clive Barker,Bernard Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Toy Story 4</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019-06-21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tom Hanks,Tim Allen,Annie Potts</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Josh Cooley</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>John Lasseter,Andrew Stanton,Josh Cooley</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Icarus</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TV-MA</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2017-08-04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Bryan Fogel,Dave Zabriskie,Don Catlin</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bryan Fogel</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Bryan Fogel,Mark Monroe,Jon Bertain</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Monty Python and the Holy Grail</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1975-05-25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Graham Chapman,John Cleese,Eric Idle</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Terry Gilliam,Terry Jones</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Graham Chapman,John Cleese,Eric Idle</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ice Age</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2002-03-15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Denis Leary,John Leguizamo,Ray Romano</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Chris Wedge,Carlos Saldanha</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Michael J. Wilson,Michael Berg,Peter Ackerman</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Her</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2014-01-10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Joaquin Phoenix,Amy Adams,Scarlett Johansson</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Spike Jonze</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Spike Jonze</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Space Jam</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1996-11-15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Michael Jordan,Wayne Knight,Theresa Randle</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Joe Pytka</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Leo Benvenuti,Steve Rudnick,Timothy Harris</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hot Rod</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2007-08-03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Andy Samberg,Isla Fisher,Ian McShane</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Akiva Schaffer</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pam Brady</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Superstar</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1999-10-08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Molly Shannon,Will Ferrell,Elaine Hendrix</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bruce McCulloch</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Molly Shannon,Steve Koren</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Missing Link</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2019-04-12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hugh Jackman,David Walliams,Stephen Fry</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Chris Butler</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Chris Butler</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>The Glass Castle</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2017-08-11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Brie Larson,Woody Harrelson,Naomi Watts</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Destin Daniel Cretton</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Destin Daniel Cretton,Andrew Lanham,Jeannette Walls</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Semi-Pro</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2008-02-29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Will Ferrell,Woody Harrelson,André 3000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kent Alterman</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Scot Armstrong</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sinbad: Legend of the Seven Seas</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2003-07-02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Brad Pitt,Catherine Zeta-Jones,Joseph Fiennes</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Patrick Gilmore,Tim Johnson</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>John Logan</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The Road to El Dorado</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2000-03-31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Kevin Kline,Kenneth Branagh,Rosie Perez</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bibo Bergeron,Don Paul,Jeffrey Katzenberg</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Ted Elliott,Terry Rossio,Karey Kirkpatrick</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>How to Eat Fried Worms</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2006-08-25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Luke Benward,Hallie Eisenberg,Adam Hicks</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bob Dolman</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Bob Dolman,Thomas Rockwell</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The Interview</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2014-12-24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>James Franco,Seth Rogen,Randall Park</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Evan Goldberg,Seth Rogen</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Dan Sterling,Seth Rogen,Evan Goldberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Amadeus</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1984-09-19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>F. Murray Abraham,Tom Hulce,Elizabeth Berridge</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Milos Forman</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Peter Shaffer,Zdenek Mahler</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Paranormal Activity</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2009-10-16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Katie Featherston,Micah Sloat,Mark Fredrichs</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Oren Peli</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Oren Peli</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>The Irishman</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2019-11-27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Robert De Niro,Al Pacino,Joe Pesci</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Martin Scorsese</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Steven Zaillian,Charles Brandt</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>The Outsiders</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1983-03-25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>C. Thomas Howell,Matt Dillon,Ralph Macchio</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Francis Ford Coppola</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Kathleen Rowell,S.E. Hinton</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ford v Ferrari</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2019-11-15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Matt Damon,Christian Bale,Jon Bernthal</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>James Mangold</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Jez Butterworth,John-Henry Butterworth,Jason Keller</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Birds of Prey and the Fantabulous Emancipation of One Harley Quinn</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2020-02-07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Margot Robbie,Rosie Perez,Mary Elizabeth Winstead</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Cathy Yan</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Christina Hodson,Paul Dini,Bruce Timm</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The Last Samurai</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2003-12-05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Tom Cruise,Ken Watanabe,Billy Connolly</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Edward Zwick</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>John Logan,Edward Zwick,Marshall Herskovitz</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Busanhaeng</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2016-07-20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Gong Yoo,Jung Yu-mi,Ma Dong-seok</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sang-ho Yeon</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Joo-Suk Park,Sang-ho Yeon</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sinister</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2012-10-12</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Ethan Hawke,Juliet Rylance,James Ransone</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Scott Derrickson</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Scott Derrickson,C. Robert Cargill</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Ritual</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>TV-MA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2018-02-09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Rafe Spall,Arsher Ali,Robert James-Collier</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>David Bruckner</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Joe Barton,Adam Nevill</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Annabelle: Creation</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2017-08-11</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Anthony LaPaglia,Samara Lee,Miranda Otto</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>David F. Sandberg</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Gary Dauberman</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Get Out</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2017-02-24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Daniel Kaluuya,Allison Williams,Bradley Whitford</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Jordan Peele</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Jordan Peele</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sonic the Hedgehog</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Ben Schwartz,James Marsden,Jim Carrey</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Jeff Fowler</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Pat Casey,Josh Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Dronningen</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019-11-19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Trine Dyrholm,Gustav Lindh,Magnus Krepper</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>May el-Toukhy</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Maren Louise Käehne,May el-Toukhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Percy Jackson &amp; the Olympians: The Lightning Thief</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2010-02-12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Logan Lerman,Kevin McKidd,Steve Coogan</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Chris Columbus</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Craig Titley,Rick Riordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Step Brothers</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2008-07-25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Will Ferrell,John C. Reilly,Mary Steenburgen</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Adam McKay</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Will Ferrell,Adam McKay,John C. Reilly</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Percy Jackson: Sea of Monsters</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2013-08-07</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Logan Lerman,Alexandra Daddario,Brandon T. Jackson</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Thor Freudenthal</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Marc Guggenheim,Rick Riordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Horrible Bosses</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2011-07-08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Jason Bateman,Charlie Day,Jason Sudeikis</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Seth Gordon</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Michael Markowitz,John Francis Daley,Jonathan Goldstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Black Swan</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2010-12-17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Natalie Portman,Mila Kunis,Vincent Cassel</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Darren Aronofsky</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Mark Heyman,Andres Heinz,John J. McLaughlin</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Horrible Bosses 2</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2014-11-26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Jason Bateman,Jason Sudeikis,Charlie Day</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sean Anders</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Sean Anders,John Morris,Jonathan Goldstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Gulliver’s Travels</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>The Pacifier</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2005-03-04</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Vin Diesel,Brittany Snow,Max Thieriot</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Adam Shankman</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Thomas Lennon,Robert Ben Garant</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Life of Brian</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1979-08-17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Graham Chapman,John Cleese,Michael Palin</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Terry Jones</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Graham Chapman,John Cleese,Terry Gilliam</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>The Roommate</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2011-02-04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Minka Kelly,Leighton Meester,Cam Gigandet</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Christian E. Christiansen</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Sonny Mallhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Old Dogs</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2009-11-25</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Robin Williams,John Travolta,Seth Green</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Walt Becker</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>David Diamond,David Weissman</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>The Game Plan</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2007-09-28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Dwayne Johnson,Kyra Sedgwick,Madison Pettis</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Andy Fickman</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Nichole Millard,Kathryn Price,Audrey Wells</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Onward</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Tom Holland,Chris Pratt,Julia Louis-Dreyfus</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Dan Scanlon</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Dan Scanlon,Keith Bunin,Jason Headley</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Aladdin</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2019-05-24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Will Smith,Mena Massoud,Naomi Scott</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>John August,Guy Ritchie</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Brother Bear</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>The Other Guys</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2010-08-06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Will Ferrell,Mark Wahlberg,Derek Jeter</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Adam McKay</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Adam McKay,Chris Henchy</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mononoke-hime</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1997-12-19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Yôji Matsuda,Yuriko Ishida,Yûko Tanaka</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki,Neil Gaiman</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The Nice Guys</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2016-05-20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Russell Crowe,Ryan Gosling,Angourie Rice</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Shane Black</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Shane Black,Anthony Bagarozzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2018-06-01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Logan Marshall-Green,Melanie Vallejo,Steve Danielsen</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Leigh Whannell</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Leigh Whannell</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Majo no takkyûbin</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1990-12-20</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Kirsten Dunst,Minami Takayama,Rei Sakuma</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Eiko Kadono,Hayao Miyazaki</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sherlock Holmes</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2009-12-25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Robert Downey Jr.,Jude Law,Rachel McAdams</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Michael Robert Johnson,Anthony Peckham,Simon Kinberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>The Time Machine</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2002-03-08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Guy Pearce,Yancey Arias,Mark Addy</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Simon Wells</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>H.G. Wells,David Duncan,John Logan</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Annabelle Comes Home</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2019-06-26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Vera Farmiga,Patrick Wilson,Mckenna Grace</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Gary Dauberman</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Gary Dauberman,James Wan</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>X-Men</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2000-07-14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Patrick Stewart,Hugh Jackman,Ian McKellen</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bryan Singer</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Tom DeSanto,Bryan Singer,David Hayter</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>The Last Airbender</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2010-07-01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Noah Ringer,Nicola Peltz Beckham,Jackson Rathbone</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Mortal Kombat</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1995-08-18</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Christopher Lambert,Robin Shou,Linden Ashby</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Paul W.S. Anderson</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Ed Boon,John Tobias,Kevin Droney</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Castle in the Sky</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Drillbit Taylor</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2008-03-21</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Owen Wilson,Josh Peck,Alex Frost</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Steven Brill</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Kristofor Brown,Seth Rogen,John Hughes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Mimi wo sumaseba</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1996-12-13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Yoko Honna,Issey Takahashi,Takashi Tachibana</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Yoshifumi Kondô</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki,Aoi Hiiragi,Cindy Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Gedo senki</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2006-07-29</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Timothy Dalton,Willem Dafoe,Mariska Hargitay</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Gorô Miyazaki</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Ursula K. Le Guin,Gorô Miyazaki,Keiko Niwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7 Days in Hell</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>TV-MA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2015-07-11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Andy Samberg,Kit Harington,Fred Armisen</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Jake Szymanski</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Murray Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Rango</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2011-03-04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Johnny Depp,Isla Fisher,Timothy Olyphant</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Gore Verbinski</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>John Logan,Gore Verbinski,James Ward Byrkit</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Yesterday</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2019-06-28</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Himesh Patel,Lily James,Sophia Di Martino</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Danny Boyle</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Richard Curtis,Jack Barth</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Molly&amp;apos;s Game</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Jessica Chastain,Idris Elba,Kevin Costner</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Aaron Sorkin</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Aaron Sorkin,Molly Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fantastic Beasts and Where to Find Them</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2016-11-18</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Eddie Redmayne,Katherine Waterston,Alison Sudol</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>David Yates</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>J.K. Rowling</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fantastic Beasts: The Crimes of Grindelwald</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2018-11-16</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Eddie Redmayne,Katherine Waterston,Dan Fogler</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>David Yates</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>J.K. Rowling</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Les Misérables</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2012-12-25</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Hugh Jackman,Russell Crowe,Anne Hathaway</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Tom Hooper</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>William Nicholson,Alain Boublil,Claude-Michel Schönberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Salt</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2010-07-23</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Angelina Jolie,Liev Schreiber,Chiwetel Ejiofor</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Phillip Noyce</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Kurt Wimmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Blade Runner 2049</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>8</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2017-10-06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Harrison Ford,Ryan Gosling,Ana de Armas</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Hampton Fancher,Michael Green,Philip K. Dick</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Taxi Driver</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1976-02-09</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Robert De Niro,Jodie Foster,Cybill Shepherd</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Martin Scorsese</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Paul Schrader</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hauru no ugoku shiro</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2005-06-17</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Chieko Baisho,Takuya Kimura,Tatsuya Gashûin</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki,Diana Wynne Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>The Florida Project</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2017-11-10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Brooklynn Prince,Bria Vinaite,Willem Dafoe</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sean Baker</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Sean Baker,Chris Bergoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Neighbors</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2014-05-09</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Seth Rogen,Rose Byrne,Zac Efron</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Nicholas Stoller</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Andrew Jay Cohen,Brendan O&amp;apos;Brien</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Crazy, Stupid, Love.</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2011-07-29</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Steve Carell,Ryan Gosling,Julianne Moore</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Glenn Ficarra,John Requa</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Dan Fogelman</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Neighbors 2: Sorority Rising</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2016-05-20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Seth Rogen,Rose Byrne,Zac Efron</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Nicholas Stoller</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Andrew Jay Cohen,Brendan O&amp;apos;Brien,Nicholas Stoller</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Requiem for a Dream</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1995-11-22</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Tom Hanks,Tim Allen,Don Rickles</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>John Lasseter</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>John Lasseter,Pete Docter,Andrew Stanton</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>The Polar Express</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2004-11-10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Tom Hanks,Chris Coppola,Michael Jeter</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Robert Zemeckis</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Chris Van Allsburg,Robert Zemeckis,William Broyles Jr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Killer Klowns from Outer Space</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1988-05-27</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Grant Cramer,Suzanne Snyder,John Allen Nelson</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Stephen Chiodo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Charles Chiodo,Stephen Chiodo,Edward Chiodo</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Super 8</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2011-06-10</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Elle Fanning,AJ Michalka,Kyle Chandler</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>J.J. Abrams</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>J.J. Abrams</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>The Green Hornet</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2011-01-14</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Seth Rogen,Jay Chou,Christoph Waltz</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Michel Gondry</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Seth Rogen,Evan Goldberg,George W. Trendle</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Patriot Games</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1992-06-05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Harrison Ford,Sean Bean,Anne Archer</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Phillip Noyce</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Tom Clancy,W. Peter Iliff,Donald E. Stewart</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Corpse Bride</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2005-09-23</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Johnny Depp,Helena Bonham Carter,Emily Watson</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Tim Burton,Mike Johnson</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Tim Burton,Carlos Grangel,John August</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Wang laohu qiang qin</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2009-07-13</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Kar Lok Chin,Louisa So,Ting-Yan Wu</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Chicken Run</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2000-06-23</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Mel Gibson,Julia Sawalha,Phil Daniels</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Peter Lord,Nick Park</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Peter Lord,Nick Park,Karey Kirkpatrick</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2005-05-27</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Chris Rock,Ben Stiller,David Schwimmer</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Eric Darnell,Tom McGrath</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Mark Burton,Billy Frolick,Eric Darnell</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Mary Queen of Scots</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2018-12-21</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Saoirse Ronan,Margot Robbie,Jack Lowden</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Josie Rourke</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Beau Willimon,John Guy</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bad Education</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>TV-MA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hugh Jackman,Ray Romano,Welker White</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Cory Finley</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Mike Makowsky,Robert Kolker</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jobs</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2013-08-16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Ashton Kutcher,Dermot Mulroney,Josh Gad</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Joshua Michael Stern</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Matt Whiteley</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>What About Bob?</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>7</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1991-05-17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Bill Murray,Richard Dreyfuss,Julie Hagerty</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Frank Oz</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Alvin Sargent,Laura Ziskin,Tom Schulman</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Sky High</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2005-07-29</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Kurt Russell,Kelly Preston,Michael Angarano</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Mike Mitchell</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Paul Hernandez,Bob Schooley,Mark McCorkle</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>The Lighthouse</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Robert Pattinson,Willem Dafoe,Valeriia Karaman</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Robert Eggers</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Robert Eggers,Max Eggers</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Arrival</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2016-11-11</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Amy Adams,Jeremy Renner,Forest Whitaker</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Eric Heisserer,Ted Chiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Donnie Darko</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>8</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2001-01-19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Jake Gyllenhaal,Jena Malone,Mary McDonnell</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Richard Kelly</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Richard Kelly</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Little Shop of Horrors</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1986-12-19</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Rick Moranis,Ellen Greene,Vincent Gardenia</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Frank Oz</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Howard Ashman,Roger Corman,Charles B. Griffith</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Overlord</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2018-11-09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Jovan Adepo,Wyatt Russell,Mathilde Ollivier</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Julius Avery</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Billy Ray,Mark L. Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hunger Games</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Bridesmaids</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2011-05-13</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Kristen Wiig,Maya Rudolph,Rose Byrne</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Paul Feig</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Kristen Wiig,Annie Mumolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>The Adventures of Tintin</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>The Hunger Games: Catching Fire</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2013-11-22</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Jennifer Lawrence,Josh Hutcherson,Liam Hemsworth</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Francis Lawrence</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Simon Beaufoy,Michael Arndt,Suzanne Collins</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Green Lantern</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2011-06-17</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Ryan Reynolds,Blake Lively,Peter Sarsgaard</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Martin Campbell</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Greg Berlanti,Michael Green,Marc Guggenheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Transcendence</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2014-04-18</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Johnny Depp,Rebecca Hall,Morgan Freeman</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Wally Pfister</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Jack Paglen</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>The Lawnmower Man</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1992-03-06</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Jeff Fahey,Pierce Brosnan,Jenny Wright</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Brett Leonard</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Stephen King,Brett Leonard,Gimel Everett</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Silent Hill</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2006-04-21</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Radha Mitchell,Laurie Holden,Sean Bean</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Christophe Gans</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Roger Avary</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>13th</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>TV-MA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2016-10-07</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Melina Abdullah,Michelle Alexander,Cory Booker</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Ava DuVernay</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Spencer Averick,Ava DuVernay</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Scream</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1996-12-20</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Neve Campbell,Courteney Cox,David Arquette</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Wes Craven</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Kevin Williamson</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Halloween</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1978-10-27</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Donald Pleasence,Jamie Lee Curtis,Tony Moran</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>John Carpenter</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>John Carpenter,Debra Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Unbreakable</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2000-11-22</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Bruce Willis,Samuel L. Jackson,Robin Wright</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Big Fish</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>8</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2004-01-09</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Ewan McGregor,Albert Finney,Billy Crudup</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Daniel Wallace,John August</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Ophelia</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019-06-28</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Daisy Ridley,Mia Quiney,Calum O&amp;apos;Rourke</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Claire McCarthy</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Semi Chellas,Lisa Klein,William Shakespeare</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Silent Hill: Revelation</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2012-10-26</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Adelaide Clemens,Kit Harington,Sean Bean</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>M.J. Bassett</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>M.J. Bassett,Laurent Hadida,Hiroyuki Owaku</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Ex Machina</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2015-04-24</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Alicia Vikander,Domhnall Gleeson,Oscar Isaac</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Alex Garland</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Alex Garland</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2008-03-28</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Jim Sturgess,Kate Bosworth,Kevin Spacey</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Robert Luketic</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Peter Steinfeld,Allan Loeb,Ben Mezrich</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Real Steel</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>7</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2011-10-07</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Hugh Jackman,Evangeline Lilly,Dakota Goyo</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Shawn Levy</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>John Gatins,Dan Gilroy,Jeremy Leven</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Good Time</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2017-08-25</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Robert Pattinson,Benny Safdie,Jennifer Jason Leigh</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Benny Safdie,Josh Safdie</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ronald Bronstein,Josh Safdie</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tusk</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2014-09-19</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Justin Long,Michael Parks,Haley Joel Osment</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kevin Smith</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Kevin Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Die Hard</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1988-07-20</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Bruce Willis,Alan Rickman,Bonnie Bedelia</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>John McTiernan</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Roderick Thorp,Jeb Stuart,Steven E. de Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Glory Road</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>data not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Cast Away</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2000-12-22</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Tom Hanks,Helen Hunt,Paul Sanchez</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Robert Zemeckis</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>William Broyles Jr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Kaze no tani no Naushika</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1987-11-25</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Sumi Shimamoto,Mahito Tsujimura,Hisako Kyôda</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki,Cindy Davis,Donald H. Hewitt</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Scooby-Doo</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2002-06-14</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Matthew Lillard,Freddie Prinze Jr.,Sarah Michelle Gellar</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Raja Gosnell</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>James Gunn,Craig Titley,William Hanna</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>El laberinto del fauno</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2007-01-19</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Ivana Baquero,Ariadna Gil,Sergi López</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Guillermo del Toro</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Guillermo del Toro</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Heisei tanuki gassen ponpoko</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1995-12-25</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Shinchô Kokontei,Makoto Nonomura,Yuriko Ishida</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Isao Takahata</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Hayao Miyazaki,Isao Takahata</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Tucker and Dale vs Evil</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2010-12-09</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Tyler Labine,Alan Tudyk,Katrina Bowden</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Eli Craig</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Eli Craig,Morgan Jurgenson</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>The Lego Batman Movie</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2017-02-10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Will Arnett,Michael Cera,Rosario Dawson</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Chris McKay</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Seth Grahame-Smith,Chris McKenna,Erik Sommers</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>At Eternity&amp;apos;s Gate</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019-02-15</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Willem Dafoe,Rupert Friend,Oscar Isaac</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Julian Schnabel</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Jean-Claude Carrière,Louise Kugelberg,Julian Schnabel</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sherlock Holmes: A Game of Shadows</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2011-12-16</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Robert Downey Jr.,Jude Law,Jared Harris</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Michele Mulroney,Kieran Mulroney,Arthur Conan Doyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>An American Werewolf in London</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1981-08-21</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>David Naughton,Jenny Agutter,Joe Belcher</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>John Landis</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>John Landis</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>The Disaster Artist</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2017-12-08</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>James Franco,Dave Franco,Ari Graynor</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>James Franco</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Scott Neustadter,Michael H. Weber,Greg Sestero</t>
         </is>
       </c>
     </row>

--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -31732,7 +31732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G767"/>
+  <dimension ref="A2:H767"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -37413,11 +37413,16 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>Kar Lok Chin,Louisa So,Ting-Yan Wu</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -37915,9 +37920,37 @@
           <t>The Adventures of Tintin</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B179" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2011-12-21</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Animation,Action,Adventure</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Jamie Bell,Andy Serkis,Daniel Craig</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Hergé,Steven Moffat,Edgar Wright</t>
         </is>
       </c>
     </row>
@@ -40061,12 +40094,40 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>The Italian Job (1969)</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>The Italian Job</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>1969-09-03</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Action,Comedy,Crime</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Michael Caine,Noël Coward,Benny Hill</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Peter Collinson</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Troy Kennedy-Martin</t>
         </is>
       </c>
     </row>
@@ -40281,9 +40342,37 @@
           <t>The Princess Bride</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B249" t="n">
+        <v>8</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1987-10-09</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Adventure,Comedy,Family</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Cary Elwes,Mandy Patinkin,Robin Wright</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Rob Reiner</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>William Goldman</t>
         </is>
       </c>
     </row>
@@ -40508,9 +40597,14 @@
           <t>1974-01-26</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Fantasy,Horror,Mystery</t>
+        </is>
+      </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -41225,15 +41319,20 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
           <t>Sean Moore</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>Sean Moore</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>Sean Moore</t>
         </is>
@@ -41532,15 +41631,20 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>Comedy,Talk-Show</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
           <t>Torey Gerace</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>Torey Gerace</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>Torey Gerace</t>
         </is>
@@ -41864,12 +41968,40 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Lord of the Rings: The Return of the King</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>9</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2003-12-17</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Drama</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Elijah Wood,Viggo Mortensen,Ian McKellen</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>J.R.R. Tolkien,Fran Walsh,Philippa Boyens</t>
         </is>
       </c>
     </row>
@@ -42203,12 +42335,40 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Beetlejuice</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>Beetle Juice</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>1988-03-30</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Comedy,Fantasy</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Alec Baldwin,Geena Davis,Michael Keaton</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Tim Burton</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Michael McDowell,Larry Wilson,Warren Skaaren</t>
         </is>
       </c>
     </row>
@@ -42470,15 +42630,20 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
+          <t>Action,Crime,Mystery</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
           <t>Vin Diesel,Jordana Brewster,Tyrese Gibson</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>Louis Leterrier</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
+      <c r="H315" t="inlineStr">
         <is>
           <t>Justin Lin,Dan Mazeau,Gary Scott Thompson</t>
         </is>
@@ -42697,11 +42862,16 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
+          <t>Short,Action</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
           <t>Robert Patrick,Don LaFontaine,Edward Furlong</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -42716,15 +42886,20 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
+          <t>Talk-Show</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
           <t>Tamara Chambers,Jake Jarvi</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>Tamara Chambers</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
+      <c r="H323" t="inlineStr">
         <is>
           <t>Tamara Chambers,Jake Jarvi</t>
         </is>
@@ -43016,9 +43191,37 @@
           <t>Full Metal Jacket</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B332" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>1987-07-10</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Drama,War</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Matthew Modine,R. Lee Ermey,Vincent D&amp;apos;Onofrio</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Stanley Kubrick</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Stanley Kubrick,Michael Herr,Gustav Hasford</t>
         </is>
       </c>
     </row>
@@ -43610,15 +43813,20 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
           <t>Hunter</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
+      <c r="G350" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr">
+      <c r="H350" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
@@ -43777,9 +43985,37 @@
           <t>The Dark Crystal</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B356" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>1982-12-17</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Adventure,Family,Fantasy</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Jim Henson,Kathryn Mullen,Frank Oz</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Jim Henson,Frank Oz</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>David Odell,Jim Henson</t>
         </is>
       </c>
     </row>
@@ -44011,9 +44247,37 @@
           <t>The Cat in the Hat</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B364" t="n">
+        <v>4</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2003-11-21</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Adventure,Comedy,Family</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Mike Myers,Spencer Breslin,Dakota Fanning</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Bo Welch</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Dr. Seuss,Alec Berg,David Mandel</t>
         </is>
       </c>
     </row>
@@ -44055,12 +44319,40 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Silence of the Lambs</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>The Silence of the Lambs</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>1991-02-14</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Crime,Drama,Thriller</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Jodie Foster,Anthony Hopkins,Lawrence A. Bonney</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Jonathan Demme</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Thomas Harris,Ted Tally</t>
         </is>
       </c>
     </row>
@@ -45089,12 +45381,40 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Scary Movie V</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>Scary Movie 5</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2013-04-12</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Comedy,Horror</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Simon Rex,Ashley Tisdale,Charlie Sheen</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Malcolm D. Lee,David Zucker</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>David Zucker,Pat Proft,Shawn Wayans</t>
         </is>
       </c>
     </row>
@@ -45631,15 +45951,20 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
+          <t>Action,Adventure,Comedy</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
           <t>Ormsby,Eric Rodriguez</t>
         </is>
       </c>
-      <c r="F413" t="inlineStr">
+      <c r="G413" t="inlineStr">
         <is>
           <t>Eric Rodriguez</t>
         </is>
       </c>
-      <c r="G413" t="inlineStr">
+      <c r="H413" t="inlineStr">
         <is>
           <t>Eric Rodriguez</t>
         </is>
@@ -46133,12 +46458,40 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>It: Chapter 1</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>It</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2017-09-08</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Bill Skarsgård,Jaeden Martell,Finn Wolfhard</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Andy Muschietti</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Chase Palmer,Cary Joji Fukunaga,Gary Dauberman</t>
         </is>
       </c>
     </row>
@@ -46183,9 +46536,37 @@
           <t>Clash of the Titans</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B430" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>1981-06-12</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Family</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Laurence Olivier,Harry Hamlin,Claire Bloom</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Desmond Davis</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Beverley Cross</t>
         </is>
       </c>
     </row>
@@ -46370,9 +46751,37 @@
           <t>Johnny English</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B436" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2003-07-18</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Comedy</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Rowan Atkinson,John Malkovich,Natalie Imbruglia</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Peter Howitt</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Neal Purvis,Robert Wade,Will Davies</t>
         </is>
       </c>
     </row>
@@ -46417,9 +46826,37 @@
           <t>The Spy Next Door</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B438" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2010-01-15</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Action,Comedy,Family</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Jackie Chan,Amber Valletta,Billy Ray Cyrus</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Brian Levant</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Jonathan Bernstein,James Greer,Gregory Poirier</t>
         </is>
       </c>
     </row>
@@ -47298,9 +47735,37 @@
           <t>A.I. Artificial Intelligence</t>
         </is>
       </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B466" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2001-06-29</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Drama,Sci-Fi</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Haley Joel Osment,Jude Law,Frances O&amp;apos;Connor</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Brian Aldiss,Ian Watson,Steven Spielberg</t>
         </is>
       </c>
     </row>
@@ -47940,9 +48405,37 @@
           <t>Home Alone</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B485" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>1990-11-16</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Comedy,Family</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Macaulay Culkin,Joe Pesci,Daniel Stern</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Chris Columbus</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>John Hughes</t>
         </is>
       </c>
     </row>
@@ -49279,15 +49772,20 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
           <t>Hurricane360,MissLink8908</t>
         </is>
       </c>
-      <c r="F524" t="inlineStr">
+      <c r="G524" t="inlineStr">
         <is>
           <t>Fredrik Nilsson</t>
         </is>
       </c>
-      <c r="G524" t="inlineStr">
+      <c r="H524" t="inlineStr">
         <is>
           <t>Fredrik Nilsson,Tony Salazar</t>
         </is>
@@ -49306,15 +49804,20 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
+          <t>Comedy,Talk-Show</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
           <t>Jack Vogt</t>
         </is>
       </c>
-      <c r="F525" t="inlineStr">
+      <c r="G525" t="inlineStr">
         <is>
           <t>Jack Vogt</t>
         </is>
       </c>
-      <c r="G525" t="inlineStr">
+      <c r="H525" t="inlineStr">
         <is>
           <t>Jack Vogt</t>
         </is>
@@ -50258,12 +50761,40 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Seven Samurai</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>Shichinin no samurai</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>1956-11-19</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Action,Drama</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Toshirô Mifune,Takashi Shimura,Keiko Tsushima</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>Akira Kurosawa</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Akira Kurosawa,Shinobu Hashimoto,Hideo Oguni</t>
         </is>
       </c>
     </row>
@@ -50343,9 +50874,37 @@
           <t>The Lost Boys</t>
         </is>
       </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B556" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>1987-07-31</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Comedy,Horror</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Jason Patric,Corey Haim,Dianne Wiest</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>Joel Schumacher</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Jan Fischer,James Jeremias,Jeffrey Boam</t>
         </is>
       </c>
     </row>
@@ -50472,15 +51031,20 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
+          <t>Talk-Show</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
           <t>Jeremy Jahns</t>
         </is>
       </c>
-      <c r="F560" t="inlineStr">
+      <c r="G560" t="inlineStr">
         <is>
           <t>Jeremy Jahns</t>
         </is>
       </c>
-      <c r="G560" t="inlineStr">
+      <c r="H560" t="inlineStr">
         <is>
           <t>Jeremy Jahns</t>
         </is>
@@ -50569,15 +51133,20 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
+          <t>Comedy,Horror</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
           <t>Rob Boor,Sean Moore</t>
         </is>
       </c>
-      <c r="F563" t="inlineStr">
+      <c r="G563" t="inlineStr">
         <is>
           <t>Rob Boor</t>
         </is>
       </c>
-      <c r="G563" t="inlineStr">
+      <c r="H563" t="inlineStr">
         <is>
           <t>Rob Boor</t>
         </is>
@@ -50869,9 +51438,37 @@
           <t>The Cable Guy</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B572" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>1996-06-14</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Comedy,Drama,Thriller</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>Jim Carrey,Matthew Broderick,Leslie Mann</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>Ben Stiller</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>Lou Holtz Jr.</t>
         </is>
       </c>
     </row>
@@ -51168,15 +51765,20 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
+          <t>Talk-Show</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
           <t>Chris Dandridge</t>
         </is>
       </c>
-      <c r="F581" t="inlineStr">
+      <c r="G581" t="inlineStr">
         <is>
           <t>Chris Dandridge</t>
         </is>
       </c>
-      <c r="G581" t="inlineStr">
+      <c r="H581" t="inlineStr">
         <is>
           <t>Chris Dandridge</t>
         </is>
@@ -51503,9 +52105,37 @@
           <t>Halloween H20: 20 Years Later</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B591" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>1998-08-05</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Horror,Thriller</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>Jamie Lee Curtis,Josh Hartnett,Adam Arkin</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>Steve Miner</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Debra Hill,John Carpenter,Robert Zappia</t>
         </is>
       </c>
     </row>
@@ -51690,9 +52320,37 @@
           <t>Black Widow</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B597" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>2021-07-09</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Sci-Fi</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Scarlett Johansson,Florence Pugh,David Harbour</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Cate Shortland</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Eric Pearson,Jac Schaeffer,Ned Benson</t>
         </is>
       </c>
     </row>
@@ -52408,9 +53066,14 @@
           <t>2014-03-17</t>
         </is>
       </c>
-      <c r="E620" t="inlineStr"/>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Documentary,Animation,Action</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr"/>
       <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -52418,9 +53081,37 @@
           <t>The Haunting in Connecticut</t>
         </is>
       </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B621" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>2009-03-27</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>Drama,Horror,Mystery</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>Virginia Madsen,Martin Donovan,Elias Koteas</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>Peter Cornwell</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Adam Simon,Tim Metcalfe</t>
         </is>
       </c>
     </row>
@@ -52612,11 +53303,16 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
           <t>Larry Underwood</t>
         </is>
       </c>
-      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -52826,12 +53522,40 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t xml:space="preserve">Piranha </t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>Piranha</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>1978-08-03</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>Comedy,Horror,Sci-Fi</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Bradford Dillman,Heather Menzies-Urich,Kevin McCarthy</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>Joe Dante</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Richard Robinson,John Sayles</t>
         </is>
       </c>
     </row>
@@ -53378,9 +54102,37 @@
           <t>The Evil Dead</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B651" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>NC-17</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>1983-04-15</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>Bruce Campbell,Ellen Sandweiss,Richard DeManincor</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Sam Raimi</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>Sam Raimi</t>
         </is>
       </c>
     </row>
@@ -54472,9 +55224,37 @@
           <t>Ever After</t>
         </is>
       </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B684" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>1998-07-31</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>Comedy,Drama,Romance</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Drew Barrymore,Anjelica Huston,Dougray Scott</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>Andy Tennant</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Susannah Grant,Andy Tennant,Rick Parks</t>
         </is>
       </c>
     </row>
@@ -54531,15 +55311,20 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
+          <t>Talk-Show</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
           <t>Chris Dandridge</t>
         </is>
       </c>
-      <c r="F686" t="inlineStr">
+      <c r="G686" t="inlineStr">
         <is>
           <t>Chris Dandridge</t>
         </is>
       </c>
-      <c r="G686" t="inlineStr">
+      <c r="H686" t="inlineStr">
         <is>
           <t>Chris Dandridge</t>
         </is>
@@ -54621,9 +55406,37 @@
           <t>Marrowbone</t>
         </is>
       </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B689" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>2018-04-13</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Adventure,Drama,Horror</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>George MacKay,Anya Taylor-Joy,Charlie Heaton</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Sergio G. Sánchez</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Sergio G. Sánchez</t>
         </is>
       </c>
     </row>
@@ -54665,12 +55478,40 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Boondock Saints</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>The Boondock Saints</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>2000-01-21</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Action,Thriller</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Willem Dafoe,Sean Patrick Flanery,Norman Reedus</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Troy Duffy</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Troy Duffy</t>
         </is>
       </c>
     </row>
@@ -54785,21 +55626,77 @@
           <t>Spy Kids 3: Game Over</t>
         </is>
       </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B695" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>2003-07-25</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Comedy</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Daryl Sabara,Alexa PenaVega,Antonio Banderas</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Robert Rodriguez</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>Robert Rodriguez</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Astroboy</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>data not found</t>
+          <t>Astro Boy</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>2009-10-23</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Animation,Action,Adventure</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Freddie Highmore,Nicolas Cage,Kristen Bell</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>David Bowers</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Osamu Tezuka,David Bowers,Timothy Harris</t>
         </is>
       </c>
     </row>
@@ -55159,9 +56056,37 @@
           <t>Paranormal Activity 3</t>
         </is>
       </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B707" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>2011-10-21</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Horror,Mystery</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Chloe Csengery,Jessica Tyler Brown,Christopher Nicholas Smith</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Henry Joost,Ariel Schulman</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Christopher Landon,Oren Peli</t>
         </is>
       </c>
     </row>
@@ -55451,9 +56376,37 @@
           <t>Halloweentown</t>
         </is>
       </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B716" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>TV-G</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>1998-10-17</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Adventure,Comedy,Family</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Debbie Reynolds,Kimberly J. Brown,Judith Hoag</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Duwayne Dunham</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Paul Bernbaum,Jon Cooksey,Ali Marie Matheson</t>
         </is>
       </c>
     </row>
@@ -55750,9 +56703,37 @@
           <t>Black Panther: Wakanda Forever</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B726" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Action,Adventure,Drama</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Letitia Wright,Lupita Nyong&amp;apos;o,Danai Gurira</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Ryan Coogler</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Ryan Coogler,Joe Robert Cole,Stan Lee</t>
         </is>
       </c>
     </row>
@@ -56189,15 +57170,20 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
+          <t>Short,Fantasy,Horror</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
           <t>Patricia Castelo Branco,Sandy Guillen,Kamal Madbooly</t>
         </is>
       </c>
-      <c r="F739" t="inlineStr">
+      <c r="G739" t="inlineStr">
         <is>
           <t>Dalton Richardson</t>
         </is>
       </c>
-      <c r="G739" t="inlineStr">
+      <c r="H739" t="inlineStr">
         <is>
           <t>Dalton Richardson</t>
         </is>
@@ -56629,9 +57615,37 @@
           <t>Signs</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B752" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>2002-08-02</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Drama,Mystery,Sci-Fi</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>Mel Gibson,Joaquin Phoenix,Rory Culkin</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>M. Night Shyamalan</t>
         </is>
       </c>
     </row>
@@ -57026,9 +58040,37 @@
           <t>Twins</t>
         </is>
       </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>data not found</t>
+      <c r="B764" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>1988-12-09</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Comedy,Crime</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Arnold Schwarzenegger,Danny DeVito,Kelly Preston</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Ivan Reitman</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Will Davies,William Osborne,Timothy Harris</t>
         </is>
       </c>
     </row>
